--- a/ProjectHotel/HotelData.xlsx
+++ b/ProjectHotel/HotelData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -33,61 +33,55 @@
     <t>captchaText</t>
   </si>
   <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Zwane</t>
+  </si>
+  <si>
+    <t>Peter@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Lucky@1994</t>
+  </si>
+  <si>
+    <t>Dube</t>
+  </si>
+  <si>
+    <t>Luckygmail.com</t>
+  </si>
+  <si>
+    <t>Testing@13</t>
+  </si>
+  <si>
+    <t>Testing@gmail.com</t>
+  </si>
+  <si>
+    <t>Mcwilton</t>
+  </si>
+  <si>
+    <t>Mcwilton@123</t>
+  </si>
+  <si>
+    <t>Sisekelo</t>
+  </si>
+  <si>
+    <t>Mcwilton@gmail.com</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>Zwane</t>
-  </si>
-  <si>
-    <t>Peter@gmail.com</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Lucky@1994</t>
-  </si>
-  <si>
-    <t>Dube</t>
-  </si>
-  <si>
-    <t>Luckygmail.com</t>
-  </si>
-  <si>
-    <t>Testing@13</t>
-  </si>
-  <si>
-    <t>Testing@gmail.com</t>
-  </si>
-  <si>
-    <t>Mcwilton</t>
-  </si>
-  <si>
-    <t>Mcwilton@123</t>
-  </si>
-  <si>
-    <t>Sisekelo</t>
-  </si>
-  <si>
-    <t>Mcwilton@gmail.com</t>
-  </si>
-  <si>
-    <t>Refilwe94</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -124,13 +118,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +149,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -354,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -379,11 +393,6 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -392,119 +401,95 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+        <v>11</v>
+      </c>
       <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>11</v>
+      </c>
       <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/ProjectHotel/HotelData.xlsx
+++ b/ProjectHotel/HotelData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -33,6 +33,9 @@
     <t>captchaText</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -81,7 +84,10 @@
     <t>Mcwilton@gmail.com</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>Refilwe94</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -118,27 +124,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -149,12 +141,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -368,7 +354,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +379,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -401,95 +392,119 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
